--- a/data/trans_orig/P5702-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P5702-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E4A9DCA-CD9E-41E2-A588-A0450C22F90C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{909356BE-EA7F-4CBB-86C9-764C8CD76AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F202BD0B-A627-4084-A3D6-079BEDD1D28F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{55EE8534-871E-4955-8D57-48E40A01A52D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="679">
   <si>
     <t>Población según la frecuencia de recibir ayuda en asuntos relacionados con mi casa en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>41,67%</t>
   </si>
   <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
   </si>
   <si>
     <t>35,97%</t>
   </si>
   <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
   </si>
   <si>
     <t>38,48%</t>
   </si>
   <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
   </si>
   <si>
     <t>Casi como deseo</t>
@@ -107,1984 +107,1975 @@
     <t>28,57%</t>
   </si>
   <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>Ni mucho ni poco</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>Menos de lo que deseo</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>Mucho menos de lo que deseo</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
     <t>25,93%</t>
   </si>
   <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de recibir ayuda en asuntos relacionados con mi casa en 2012 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
     <t>31,47%</t>
   </si>
   <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>Ni mucho ni poco</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>Menos de lo que deseo</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>Mucho menos de lo que deseo</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de recibir ayuda en asuntos relacionados con mi casa en 2015 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
   </si>
   <si>
     <t>1,79%</t>
   </si>
   <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de recibir ayuda en asuntos relacionados con mi casa en 2023 (Tasa respuesta: 99,66%)</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
   </si>
   <si>
     <t>30,2%</t>
   </si>
   <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
   </si>
   <si>
     <t>5,77%</t>
   </si>
   <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>62,95%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
   </si>
   <si>
     <t>27,57%</t>
   </si>
   <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de recibir ayuda en asuntos relacionados con mi casa en 2012 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
   </si>
   <si>
     <t>11,03%</t>
   </si>
   <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de recibir ayuda en asuntos relacionados con mi casa en 2015 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de recibir ayuda en asuntos relacionados con mi casa en 2023 (Tasa respuesta: 99,66%)</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
   </si>
   <si>
     <t>2,6%</t>
   </si>
   <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>56,38%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
     <t>2,67%</t>
   </si>
   <si>
-    <t>2,22%</t>
+    <t>2,2%</t>
   </si>
   <si>
     <t>2,38%</t>
   </si>
   <si>
-    <t>2,8%</t>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
   </si>
 </sst>
 </file>
@@ -2496,7 +2487,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DCD8FEA-2716-4788-BA64-C1381CEAF67B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57AECD44-28C8-4F9E-AD8D-120080EA9122}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3132,13 +3123,13 @@
         <v>29741</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>32</v>
@@ -3147,13 +3138,13 @@
         <v>33699</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>59</v>
@@ -3162,13 +3153,13 @@
         <v>63439</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3224,7 +3215,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3236,13 +3227,13 @@
         <v>288535</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>258</v>
@@ -3251,13 +3242,13 @@
         <v>269472</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>536</v>
@@ -3266,13 +3257,13 @@
         <v>558007</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3287,13 +3278,13 @@
         <v>163788</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>109</v>
@@ -3302,13 +3293,13 @@
         <v>114790</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>263</v>
@@ -3317,13 +3308,13 @@
         <v>278578</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3338,13 +3329,13 @@
         <v>73796</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>53</v>
@@ -3353,13 +3344,13 @@
         <v>55916</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M18" s="7">
         <v>123</v>
@@ -3368,13 +3359,13 @@
         <v>129712</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3389,13 +3380,13 @@
         <v>15742</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H19" s="7">
         <v>26</v>
@@ -3404,13 +3395,13 @@
         <v>28190</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M19" s="7">
         <v>43</v>
@@ -3419,13 +3410,13 @@
         <v>43932</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3440,13 +3431,13 @@
         <v>9546</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -3455,13 +3446,13 @@
         <v>8045</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M20" s="7">
         <v>14</v>
@@ -3470,13 +3461,13 @@
         <v>17591</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>151</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3544,13 +3535,13 @@
         <v>1615568</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>1468</v>
@@ -3559,28 +3550,28 @@
         <v>1486729</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>3046</v>
       </c>
       <c r="N22" s="7">
-        <v>3102296</v>
+        <v>3102297</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3595,13 +3586,13 @@
         <v>932394</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>161</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>162</v>
+        <v>124</v>
       </c>
       <c r="H23" s="7">
         <v>860</v>
@@ -3610,7 +3601,7 @@
         <v>876312</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>22</v>
+        <v>162</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>163</v>
@@ -3664,10 +3655,10 @@
         <v>171</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M24" s="7">
         <v>1035</v>
@@ -3676,13 +3667,13 @@
         <v>1059644</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3697,13 +3688,13 @@
         <v>171144</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H25" s="7">
         <v>354</v>
@@ -3712,13 +3703,13 @@
         <v>377858</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M25" s="7">
         <v>521</v>
@@ -3727,7 +3718,7 @@
         <v>549002</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>93</v>
+        <v>182</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>183</v>
@@ -3748,7 +3739,7 @@
         <v>56775</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>185</v>
@@ -3769,7 +3760,7 @@
         <v>187</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="M26" s="7">
         <v>124</v>
@@ -3781,10 +3772,10 @@
         <v>188</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>144</v>
+        <v>189</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3826,7 +3817,7 @@
         <v>6511</v>
       </c>
       <c r="N27" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -3840,7 +3831,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -3859,7 +3850,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4113DC45-B59D-4880-B7CB-51751D41E0E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037FAB18-91BB-4382-9803-0A6F248678DC}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3876,7 +3867,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3983,13 +3974,13 @@
         <v>457073</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H4" s="7">
         <v>504</v>
@@ -3998,13 +3989,13 @@
         <v>538119</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M4" s="7">
         <v>935</v>
@@ -4013,13 +4004,13 @@
         <v>995192</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4034,13 +4025,13 @@
         <v>274714</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H5" s="7">
         <v>371</v>
@@ -4049,13 +4040,13 @@
         <v>402335</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M5" s="7">
         <v>625</v>
@@ -4064,13 +4055,13 @@
         <v>677049</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,13 +4076,13 @@
         <v>152386</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H6" s="7">
         <v>190</v>
@@ -4100,13 +4091,13 @@
         <v>205018</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M6" s="7">
         <v>328</v>
@@ -4115,13 +4106,13 @@
         <v>357403</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4136,13 +4127,13 @@
         <v>69329</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H7" s="7">
         <v>117</v>
@@ -4151,13 +4142,13 @@
         <v>124703</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M7" s="7">
         <v>182</v>
@@ -4166,13 +4157,13 @@
         <v>194033</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,13 +4178,13 @@
         <v>16301</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H8" s="7">
         <v>64</v>
@@ -4202,13 +4193,13 @@
         <v>66582</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M8" s="7">
         <v>79</v>
@@ -4217,13 +4208,13 @@
         <v>82883</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4291,13 +4282,13 @@
         <v>1045983</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>64</v>
+        <v>238</v>
       </c>
       <c r="H10" s="7">
         <v>728</v>
@@ -4306,13 +4297,13 @@
         <v>775279</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>240</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M10" s="7">
         <v>1728</v>
@@ -4321,13 +4312,13 @@
         <v>1821261</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4342,13 +4333,13 @@
         <v>512224</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>244</v>
+        <v>121</v>
       </c>
       <c r="H11" s="7">
         <v>447</v>
@@ -4357,13 +4348,13 @@
         <v>474429</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>161</v>
+        <v>247</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="M11" s="7">
         <v>924</v>
@@ -4372,13 +4363,13 @@
         <v>986652</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4393,13 +4384,13 @@
         <v>244582</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="H12" s="7">
         <v>225</v>
@@ -4408,13 +4399,13 @@
         <v>248929</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="M12" s="7">
         <v>456</v>
@@ -4423,13 +4414,13 @@
         <v>493511</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>182</v>
+        <v>260</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4444,13 +4435,13 @@
         <v>108198</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="H13" s="7">
         <v>147</v>
@@ -4459,13 +4450,13 @@
         <v>160925</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="M13" s="7">
         <v>249</v>
@@ -4474,13 +4465,13 @@
         <v>269123</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4495,13 +4486,13 @@
         <v>50715</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>104</v>
+        <v>272</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="H14" s="7">
         <v>87</v>
@@ -4510,13 +4501,13 @@
         <v>97141</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="M14" s="7">
         <v>131</v>
@@ -4525,13 +4516,13 @@
         <v>147856</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4587,7 +4578,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4599,13 +4590,13 @@
         <v>280138</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="H16" s="7">
         <v>226</v>
@@ -4614,13 +4605,13 @@
         <v>249671</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="M16" s="7">
         <v>483</v>
@@ -4629,13 +4620,13 @@
         <v>529809</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4650,13 +4641,13 @@
         <v>110124</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="H17" s="7">
         <v>108</v>
@@ -4665,13 +4656,13 @@
         <v>125228</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>287</v>
+        <v>164</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="M17" s="7">
         <v>209</v>
@@ -4680,13 +4671,13 @@
         <v>235352</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4701,13 +4692,13 @@
         <v>53979</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="H18" s="7">
         <v>41</v>
@@ -4716,13 +4707,13 @@
         <v>44910</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="M18" s="7">
         <v>89</v>
@@ -4731,13 +4722,13 @@
         <v>98890</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4752,13 +4743,13 @@
         <v>23199</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="H19" s="7">
         <v>26</v>
@@ -4767,13 +4758,13 @@
         <v>27834</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>179</v>
+        <v>308</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="M19" s="7">
         <v>47</v>
@@ -4782,13 +4773,13 @@
         <v>51033</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4803,13 +4794,13 @@
         <v>11645</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -4818,13 +4809,13 @@
         <v>10988</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="M20" s="7">
         <v>20</v>
@@ -4833,13 +4824,13 @@
         <v>22633</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4907,13 +4898,13 @@
         <v>1783194</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H22" s="7">
         <v>1458</v>
@@ -4922,13 +4913,13 @@
         <v>1563069</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="M22" s="7">
         <v>3146</v>
@@ -4937,13 +4928,13 @@
         <v>3346263</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>323</v>
+        <v>65</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>152</v>
+        <v>328</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4958,13 +4949,13 @@
         <v>897061</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="H23" s="7">
         <v>926</v>
@@ -4973,13 +4964,13 @@
         <v>1001992</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="M23" s="7">
         <v>1758</v>
@@ -4988,13 +4979,13 @@
         <v>1899053</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5009,13 +5000,13 @@
         <v>450947</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="H24" s="7">
         <v>456</v>
@@ -5024,13 +5015,13 @@
         <v>498857</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="M24" s="7">
         <v>873</v>
@@ -5039,13 +5030,13 @@
         <v>949804</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5060,13 +5051,13 @@
         <v>200726</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="H25" s="7">
         <v>290</v>
@@ -5075,13 +5066,13 @@
         <v>313463</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="M25" s="7">
         <v>478</v>
@@ -5090,13 +5081,13 @@
         <v>514189</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>348</v>
+        <v>227</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>271</v>
+        <v>353</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5111,13 +5102,13 @@
         <v>78661</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>186</v>
+        <v>355</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="H26" s="7">
         <v>162</v>
@@ -5126,13 +5117,13 @@
         <v>174710</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>354</v>
+        <v>142</v>
       </c>
       <c r="M26" s="7">
         <v>230</v>
@@ -5141,13 +5132,13 @@
         <v>253371</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5203,7 +5194,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -5222,7 +5213,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E457C7A8-677D-43D3-8D97-A3878A9348AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1418647-BF83-4812-A9AC-1A3C8C559251}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5239,7 +5230,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5346,13 +5337,13 @@
         <v>304684</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="H4" s="7">
         <v>306</v>
@@ -5361,13 +5352,13 @@
         <v>339666</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="M4" s="7">
         <v>613</v>
@@ -5376,13 +5367,13 @@
         <v>644350</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5397,13 +5388,13 @@
         <v>243178</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="H5" s="7">
         <v>274</v>
@@ -5412,13 +5403,13 @@
         <v>302419</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="M5" s="7">
         <v>519</v>
@@ -5427,13 +5418,13 @@
         <v>545597</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5448,13 +5439,13 @@
         <v>149946</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="H6" s="7">
         <v>187</v>
@@ -5463,13 +5454,13 @@
         <v>211173</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="M6" s="7">
         <v>337</v>
@@ -5478,13 +5469,13 @@
         <v>361120</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5502,10 +5493,10 @@
         <v>95</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="H7" s="7">
         <v>90</v>
@@ -5514,13 +5505,13 @@
         <v>102411</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>294</v>
+        <v>394</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>388</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
         <v>143</v>
@@ -5529,13 +5520,13 @@
         <v>152274</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>391</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5550,13 +5541,13 @@
         <v>6676</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>98</v>
+        <v>143</v>
       </c>
       <c r="H8" s="7">
         <v>33</v>
@@ -5565,13 +5556,13 @@
         <v>36613</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="M8" s="7">
         <v>40</v>
@@ -5580,13 +5571,13 @@
         <v>43289</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>98</v>
+        <v>403</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>146</v>
+        <v>404</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5654,13 +5645,13 @@
         <v>866173</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>398</v>
+        <v>240</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="H10" s="7">
         <v>717</v>
@@ -5669,13 +5660,13 @@
         <v>736431</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="M10" s="7">
         <v>1531</v>
@@ -5684,13 +5675,13 @@
         <v>1602603</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5705,13 +5696,13 @@
         <v>726606</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="H11" s="7">
         <v>667</v>
@@ -5720,13 +5711,13 @@
         <v>699573</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="M11" s="7">
         <v>1356</v>
@@ -5735,13 +5726,13 @@
         <v>1426180</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5756,13 +5747,13 @@
         <v>334183</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="H12" s="7">
         <v>324</v>
@@ -5771,13 +5762,13 @@
         <v>342698</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="M12" s="7">
         <v>640</v>
@@ -5786,13 +5777,13 @@
         <v>676881</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5807,13 +5798,13 @@
         <v>100403</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="H13" s="7">
         <v>132</v>
@@ -5822,13 +5813,13 @@
         <v>140271</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="M13" s="7">
         <v>221</v>
@@ -5837,13 +5828,13 @@
         <v>240673</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5858,13 +5849,13 @@
         <v>44552</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>436</v>
+        <v>54</v>
       </c>
       <c r="H14" s="7">
         <v>65</v>
@@ -5873,13 +5864,13 @@
         <v>65808</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>146</v>
+        <v>441</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="M14" s="7">
         <v>105</v>
@@ -5888,10 +5879,10 @@
         <v>110361</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>441</v>
@@ -5950,7 +5941,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5962,13 +5953,13 @@
         <v>275030</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="H16" s="7">
         <v>257</v>
@@ -5977,13 +5968,13 @@
         <v>268246</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="M16" s="7">
         <v>513</v>
@@ -5992,13 +5983,13 @@
         <v>543277</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6013,13 +6004,13 @@
         <v>163848</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>452</v>
+        <v>166</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="H17" s="7">
         <v>150</v>
@@ -6028,13 +6019,13 @@
         <v>153124</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="M17" s="7">
         <v>301</v>
@@ -6043,13 +6034,13 @@
         <v>316972</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>458</v>
+        <v>117</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6064,13 +6055,13 @@
         <v>80729</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="H18" s="7">
         <v>68</v>
@@ -6079,13 +6070,13 @@
         <v>71744</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>465</v>
+        <v>127</v>
       </c>
       <c r="M18" s="7">
         <v>138</v>
@@ -6094,13 +6085,13 @@
         <v>152473</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6115,13 +6106,13 @@
         <v>18473</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H19" s="7">
         <v>29</v>
@@ -6130,13 +6121,13 @@
         <v>31878</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M19" s="7">
         <v>46</v>
@@ -6145,13 +6136,13 @@
         <v>50351</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>356</v>
+        <v>441</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6166,13 +6157,13 @@
         <v>7940</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H20" s="7">
         <v>21</v>
@@ -6181,13 +6172,13 @@
         <v>23215</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M20" s="7">
         <v>27</v>
@@ -6196,13 +6187,13 @@
         <v>31154</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6270,13 +6261,13 @@
         <v>1445887</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H22" s="7">
         <v>1280</v>
@@ -6285,28 +6276,28 @@
         <v>1344343</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M22" s="7">
         <v>2657</v>
       </c>
       <c r="N22" s="7">
-        <v>2790230</v>
+        <v>2790231</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>493</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6321,13 +6312,13 @@
         <v>1133632</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>495</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>496</v>
       </c>
       <c r="H23" s="7">
         <v>1091</v>
@@ -6336,13 +6327,13 @@
         <v>1155116</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>498</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>499</v>
       </c>
       <c r="M23" s="7">
         <v>2176</v>
@@ -6351,13 +6342,13 @@
         <v>2288748</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>501</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6372,10 +6363,10 @@
         <v>564859</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>503</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>423</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>504</v>
@@ -6408,7 +6399,7 @@
         <v>509</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>510</v>
+        <v>464</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6423,13 +6414,13 @@
         <v>168739</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>511</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>513</v>
       </c>
       <c r="H25" s="7">
         <v>251</v>
@@ -6438,28 +6429,28 @@
         <v>274560</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>514</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>516</v>
       </c>
       <c r="M25" s="7">
         <v>410</v>
       </c>
       <c r="N25" s="7">
-        <v>443298</v>
+        <v>443299</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>265</v>
+        <v>515</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>517</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6474,13 +6465,13 @@
         <v>59168</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>520</v>
-      </c>
       <c r="G26" s="7" t="s">
-        <v>521</v>
+        <v>186</v>
       </c>
       <c r="H26" s="7">
         <v>119</v>
@@ -6489,13 +6480,13 @@
         <v>125636</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>522</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>524</v>
       </c>
       <c r="M26" s="7">
         <v>172</v>
@@ -6504,13 +6495,13 @@
         <v>184804</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>525</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6552,7 +6543,7 @@
         <v>6530</v>
       </c>
       <c r="N27" s="7">
-        <v>6897554</v>
+        <v>6897555</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -6566,7 +6557,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -6585,7 +6576,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3DC73C1-E1E1-4C9F-93B1-4DE824EA6939}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D9AA3E-20A8-4D60-8A23-3461920F2219}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6602,7 +6593,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6709,13 +6700,13 @@
         <v>253913</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>529</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>530</v>
       </c>
       <c r="H4" s="7">
         <v>592</v>
@@ -6724,13 +6715,13 @@
         <v>352758</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>532</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>533</v>
       </c>
       <c r="M4" s="7">
         <v>911</v>
@@ -6739,13 +6730,13 @@
         <v>606671</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>535</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6760,13 +6751,13 @@
         <v>144845</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>538</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>539</v>
       </c>
       <c r="H5" s="7">
         <v>405</v>
@@ -6775,13 +6766,13 @@
         <v>229717</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>541</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>542</v>
       </c>
       <c r="M5" s="7">
         <v>589</v>
@@ -6790,13 +6781,13 @@
         <v>374561</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>544</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6811,13 +6802,13 @@
         <v>82746</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>547</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>548</v>
       </c>
       <c r="H6" s="7">
         <v>243</v>
@@ -6826,13 +6817,13 @@
         <v>139957</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>550</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>551</v>
       </c>
       <c r="M6" s="7">
         <v>352</v>
@@ -6841,13 +6832,13 @@
         <v>222704</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>552</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>553</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6862,13 +6853,13 @@
         <v>37667</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>556</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H7" s="7">
         <v>127</v>
@@ -6880,10 +6871,10 @@
         <v>557</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>390</v>
+        <v>558</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="M7" s="7">
         <v>177</v>
@@ -6892,13 +6883,13 @@
         <v>110823</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6919,7 +6910,7 @@
         <v>563</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>427</v>
+        <v>564</v>
       </c>
       <c r="H8" s="7">
         <v>53</v>
@@ -6928,13 +6919,13 @@
         <v>36387</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>59</v>
+        <v>566</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>262</v>
+        <v>307</v>
       </c>
       <c r="M8" s="7">
         <v>81</v>
@@ -6943,13 +6934,13 @@
         <v>57995</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>565</v>
+        <v>359</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7017,13 +7008,13 @@
         <v>1289114</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H10" s="7">
         <v>1458</v>
@@ -7032,13 +7023,13 @@
         <v>1163585</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="M10" s="7">
         <v>2549</v>
@@ -7047,13 +7038,13 @@
         <v>2452700</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>576</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7068,13 +7059,13 @@
         <v>545899</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>544</v>
+        <v>577</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H11" s="7">
         <v>919</v>
@@ -7083,13 +7074,13 @@
         <v>595761</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>242</v>
+        <v>581</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="M11" s="7">
         <v>1482</v>
@@ -7098,13 +7089,13 @@
         <v>1141659</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>581</v>
+        <v>333</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>245</v>
+        <v>583</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7119,13 +7110,13 @@
         <v>215937</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="H12" s="7">
         <v>304</v>
@@ -7134,13 +7125,13 @@
         <v>218307</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>391</v>
+        <v>588</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="M12" s="7">
         <v>518</v>
@@ -7149,13 +7140,13 @@
         <v>434244</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>464</v>
+        <v>180</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>589</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7170,13 +7161,13 @@
         <v>69313</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>590</v>
+        <v>361</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>304</v>
+        <v>593</v>
       </c>
       <c r="H13" s="7">
         <v>165</v>
@@ -7185,13 +7176,13 @@
         <v>110917</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>593</v>
+        <v>235</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>594</v>
+        <v>178</v>
       </c>
       <c r="M13" s="7">
         <v>244</v>
@@ -7224,10 +7215,10 @@
         <v>598</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>99</v>
+        <v>599</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H14" s="7">
         <v>69</v>
@@ -7236,13 +7227,13 @@
         <v>46660</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>598</v>
+        <v>146</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="M14" s="7">
         <v>110</v>
@@ -7251,13 +7242,13 @@
         <v>82435</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>602</v>
+        <v>484</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>603</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>57</v>
+        <v>604</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7313,7 +7304,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7325,13 +7316,13 @@
         <v>422516</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H16" s="7">
         <v>576</v>
@@ -7340,13 +7331,13 @@
         <v>431899</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="M16" s="7">
         <v>986</v>
@@ -7355,13 +7346,13 @@
         <v>854416</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7376,13 +7367,13 @@
         <v>166061</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>615</v>
+        <v>160</v>
       </c>
       <c r="H17" s="7">
         <v>285</v>
@@ -7412,7 +7403,7 @@
         <v>620</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>621</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7427,13 +7418,13 @@
         <v>45859</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>432</v>
+        <v>401</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>623</v>
+        <v>129</v>
       </c>
       <c r="H18" s="7">
         <v>66</v>
@@ -7442,13 +7433,13 @@
         <v>47756</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>624</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>625</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="M18" s="7">
         <v>118</v>
@@ -7457,13 +7448,13 @@
         <v>93615</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>271</v>
+        <v>625</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>626</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>627</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7478,13 +7469,13 @@
         <v>23296</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>628</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>629</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>630</v>
       </c>
       <c r="H19" s="7">
         <v>51</v>
@@ -7493,13 +7484,13 @@
         <v>33776</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>631</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>632</v>
       </c>
       <c r="M19" s="7">
         <v>76</v>
@@ -7508,13 +7499,13 @@
         <v>57071</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>634</v>
+        <v>567</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7529,13 +7520,13 @@
         <v>12310</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>636</v>
+        <v>356</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>356</v>
+        <v>634</v>
       </c>
       <c r="H20" s="7">
         <v>24</v>
@@ -7544,13 +7535,13 @@
         <v>15053</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>640</v>
+        <v>480</v>
       </c>
       <c r="M20" s="7">
         <v>36</v>
@@ -7559,13 +7550,13 @@
         <v>27362</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7633,13 +7624,13 @@
         <v>1965543</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="H22" s="7">
         <v>2626</v>
@@ -7648,13 +7639,13 @@
         <v>1948242</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="M22" s="7">
         <v>4446</v>
@@ -7663,13 +7654,13 @@
         <v>3913786</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7684,13 +7675,13 @@
         <v>856805</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="H23" s="7">
         <v>1609</v>
@@ -7699,13 +7690,13 @@
         <v>1010262</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="M23" s="7">
         <v>2535</v>
@@ -7714,13 +7705,13 @@
         <v>1867067</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7735,13 +7726,13 @@
         <v>344543</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>663</v>
+        <v>591</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="H24" s="7">
         <v>613</v>
@@ -7750,13 +7741,13 @@
         <v>406021</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>223</v>
+        <v>660</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="M24" s="7">
         <v>988</v>
@@ -7765,13 +7756,13 @@
         <v>750563</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7786,13 +7777,13 @@
         <v>130276</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>590</v>
+        <v>667</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>671</v>
+        <v>315</v>
       </c>
       <c r="H25" s="7">
         <v>343</v>
@@ -7801,13 +7792,13 @@
         <v>217848</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="M25" s="7">
         <v>497</v>
@@ -7816,13 +7807,13 @@
         <v>348124</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>675</v>
+        <v>311</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7837,13 +7828,13 @@
         <v>69694</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>437</v>
+        <v>673</v>
       </c>
       <c r="H26" s="7">
         <v>146</v>
@@ -7852,13 +7843,13 @@
         <v>98099</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>469</v>
+        <v>631</v>
       </c>
       <c r="M26" s="7">
         <v>227</v>
@@ -7867,13 +7858,13 @@
         <v>167793</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>188</v>
+        <v>677</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7929,7 +7920,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P5702-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P5702-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{909356BE-EA7F-4CBB-86C9-764C8CD76AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9A03313-31BD-430E-B5B1-9787AE7DAB3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{55EE8534-871E-4955-8D57-48E40A01A52D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{326981F7-42CC-4995-B44B-AFEBDAAC27A7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="687">
   <si>
     <t>Población según la frecuencia de recibir ayuda en asuntos relacionados con mi casa en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>41,67%</t>
   </si>
   <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
   </si>
   <si>
     <t>35,97%</t>
   </si>
   <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
   </si>
   <si>
     <t>38,48%</t>
   </si>
   <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
   </si>
   <si>
     <t>Casi como deseo</t>
@@ -107,28 +107,28 @@
     <t>28,57%</t>
   </si>
   <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
   </si>
   <si>
     <t>26,52%</t>
   </si>
   <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
   </si>
   <si>
     <t>27,42%</t>
   </si>
   <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
   </si>
   <si>
     <t>Ni mucho ni poco</t>
@@ -137,1921 +137,1945 @@
     <t>19,16%</t>
   </si>
   <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
   </si>
   <si>
     <t>19,71%</t>
   </si>
   <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
   </si>
   <si>
     <t>19,47%</t>
   </si>
   <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>Menos de lo que deseo</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>Mucho menos de lo que deseo</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
     <t>17,94%</t>
   </si>
   <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>Menos de lo que deseo</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>Mucho menos de lo que deseo</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de recibir ayuda en asuntos relacionados con mi casa en 2012 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
   </si>
   <si>
     <t>25,5%</t>
   </si>
   <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>60,91%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
   </si>
   <si>
     <t>10,7%</t>
   </si>
   <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de recibir ayuda en asuntos relacionados con mi casa en 2016 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
     <t>16,34%</t>
   </si>
   <si>
-    <t>11,74%</t>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de recibir ayuda en asuntos relacionados con mi casa en 2023 (Tasa respuesta: 99,66%)</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>62,95%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
   </si>
   <si>
     <t>9,04%</t>
   </si>
   <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de recibir ayuda en asuntos relacionados con mi casa en 2012 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
   </si>
   <si>
     <t>6,26%</t>
   </si>
   <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
   </si>
   <si>
     <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de recibir ayuda en asuntos relacionados con mi casa en 2015 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de recibir ayuda en asuntos relacionados con mi casa en 2023 (Tasa respuesta: 99,66%)</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>62,95%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
   </si>
   <si>
     <t>2,07%</t>
@@ -2487,7 +2511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57AECD44-28C8-4F9E-AD8D-120080EA9122}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2265B46-2B2E-48B6-806D-3BF8D9467BD2}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2848,10 +2872,10 @@
         <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2866,13 +2890,13 @@
         <v>1031723</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>1291</v>
@@ -2881,13 +2905,13 @@
         <v>1315113</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>2329</v>
@@ -2896,18 +2920,18 @@
         <v>2346836</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2916,16 +2940,16 @@
         <v>865</v>
       </c>
       <c r="D10" s="7">
-        <v>897132</v>
+        <v>897133</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>739</v>
@@ -2934,13 +2958,13 @@
         <v>744173</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>1604</v>
@@ -2949,13 +2973,13 @@
         <v>1641306</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2970,13 +2994,13 @@
         <v>473814</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>408</v>
@@ -2985,13 +3009,13 @@
         <v>412818</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>881</v>
@@ -3000,13 +3024,13 @@
         <v>886632</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3018,16 +3042,16 @@
         <v>223</v>
       </c>
       <c r="D12" s="7">
-        <v>229146</v>
+        <v>229147</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>235</v>
@@ -3036,13 +3060,13 @@
         <v>243844</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>458</v>
@@ -3051,13 +3075,13 @@
         <v>472990</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3072,13 +3096,13 @@
         <v>63579</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>140</v>
@@ -3087,13 +3111,13 @@
         <v>153140</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>201</v>
@@ -3102,13 +3126,13 @@
         <v>216719</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3123,7 +3147,7 @@
         <v>29741</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>98</v>
@@ -3171,16 +3195,16 @@
         <v>1649</v>
       </c>
       <c r="D15" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>1554</v>
@@ -3189,13 +3213,13 @@
         <v>1587673</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>3203</v>
@@ -3204,13 +3228,13 @@
         <v>3281086</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3467,7 +3491,7 @@
         <v>150</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>102</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3482,13 +3506,13 @@
         <v>551408</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>452</v>
@@ -3497,13 +3521,13 @@
         <v>476412</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>979</v>
@@ -3512,13 +3536,13 @@
         <v>1027820</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3535,13 +3559,13 @@
         <v>1615568</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>1468</v>
@@ -3550,13 +3574,13 @@
         <v>1486729</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>3046</v>
@@ -3565,13 +3589,13 @@
         <v>3102297</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3583,16 +3607,16 @@
         <v>925</v>
       </c>
       <c r="D23" s="7">
-        <v>932394</v>
+        <v>932393</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="H23" s="7">
         <v>860</v>
@@ -3601,13 +3625,13 @@
         <v>876312</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M23" s="7">
         <v>1785</v>
@@ -3616,13 +3640,13 @@
         <v>1808705</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3637,13 +3661,13 @@
         <v>500663</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H24" s="7">
         <v>541</v>
@@ -3652,13 +3676,13 @@
         <v>558981</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M24" s="7">
         <v>1035</v>
@@ -3667,13 +3691,13 @@
         <v>1059644</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3688,13 +3712,13 @@
         <v>171144</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H25" s="7">
         <v>354</v>
@@ -3703,13 +3727,13 @@
         <v>377858</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M25" s="7">
         <v>521</v>
@@ -3718,13 +3742,13 @@
         <v>549002</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3742,10 +3766,10 @@
         <v>143</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H26" s="7">
         <v>74</v>
@@ -3757,10 +3781,10 @@
         <v>57</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>102</v>
+        <v>191</v>
       </c>
       <c r="M26" s="7">
         <v>124</v>
@@ -3769,13 +3793,13 @@
         <v>136094</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>189</v>
+        <v>135</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3787,16 +3811,16 @@
         <v>3214</v>
       </c>
       <c r="D27" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>3297</v>
@@ -3805,13 +3829,13 @@
         <v>3379198</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>6511</v>
@@ -3820,18 +3844,18 @@
         <v>6655741</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -3850,7 +3874,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037FAB18-91BB-4382-9803-0A6F248678DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F42E6391-2061-40A1-AF5A-B207A381C275}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3867,7 +3891,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3974,13 +3998,13 @@
         <v>457073</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="H4" s="7">
         <v>504</v>
@@ -3989,13 +4013,13 @@
         <v>538119</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="M4" s="7">
         <v>935</v>
@@ -4004,13 +4028,13 @@
         <v>995192</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4025,13 +4049,13 @@
         <v>274714</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H5" s="7">
         <v>371</v>
@@ -4040,13 +4064,13 @@
         <v>402335</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="M5" s="7">
         <v>625</v>
@@ -4055,13 +4079,13 @@
         <v>677049</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4076,13 +4100,13 @@
         <v>152386</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="H6" s="7">
         <v>190</v>
@@ -4091,13 +4115,13 @@
         <v>205018</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M6" s="7">
         <v>328</v>
@@ -4106,13 +4130,13 @@
         <v>357403</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4127,13 +4151,13 @@
         <v>69329</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H7" s="7">
         <v>117</v>
@@ -4142,13 +4166,13 @@
         <v>124703</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M7" s="7">
         <v>182</v>
@@ -4157,13 +4181,13 @@
         <v>194033</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4178,13 +4202,13 @@
         <v>16301</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>189</v>
+        <v>232</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H8" s="7">
         <v>64</v>
@@ -4193,13 +4217,13 @@
         <v>66582</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="M8" s="7">
         <v>79</v>
@@ -4208,13 +4232,13 @@
         <v>82883</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4229,13 +4253,13 @@
         <v>969803</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>1246</v>
@@ -4244,13 +4268,13 @@
         <v>1336757</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>2149</v>
@@ -4259,18 +4283,18 @@
         <v>2306560</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4282,13 +4306,13 @@
         <v>1045983</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H10" s="7">
         <v>728</v>
@@ -4297,13 +4321,13 @@
         <v>775279</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="M10" s="7">
         <v>1728</v>
@@ -4312,13 +4336,13 @@
         <v>1821261</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4333,13 +4357,13 @@
         <v>512224</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>121</v>
+        <v>251</v>
       </c>
       <c r="H11" s="7">
         <v>447</v>
@@ -4348,13 +4372,13 @@
         <v>474429</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>249</v>
+        <v>26</v>
       </c>
       <c r="M11" s="7">
         <v>924</v>
@@ -4363,13 +4387,13 @@
         <v>986652</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4384,13 +4408,13 @@
         <v>244582</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="H12" s="7">
         <v>225</v>
@@ -4399,13 +4423,13 @@
         <v>248929</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="M12" s="7">
         <v>456</v>
@@ -4414,13 +4438,13 @@
         <v>493511</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4435,13 +4459,13 @@
         <v>108198</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="H13" s="7">
         <v>147</v>
@@ -4450,13 +4474,13 @@
         <v>160925</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M13" s="7">
         <v>249</v>
@@ -4465,13 +4489,13 @@
         <v>269123</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4486,13 +4510,13 @@
         <v>50715</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H14" s="7">
         <v>87</v>
@@ -4501,13 +4525,13 @@
         <v>97141</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="M14" s="7">
         <v>131</v>
@@ -4516,13 +4540,13 @@
         <v>147856</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4534,16 +4558,16 @@
         <v>1854</v>
       </c>
       <c r="D15" s="7">
-        <v>1961701</v>
+        <v>1961702</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>1634</v>
@@ -4552,13 +4576,13 @@
         <v>1756703</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>3488</v>
@@ -4567,13 +4591,13 @@
         <v>3718404</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4590,13 +4614,13 @@
         <v>280138</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="H16" s="7">
         <v>226</v>
@@ -4605,13 +4629,13 @@
         <v>249671</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="M16" s="7">
         <v>483</v>
@@ -4620,13 +4644,13 @@
         <v>529809</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>285</v>
+        <v>109</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4641,13 +4665,13 @@
         <v>110124</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="H17" s="7">
         <v>108</v>
@@ -4656,13 +4680,13 @@
         <v>125228</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>164</v>
+        <v>295</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="M17" s="7">
         <v>209</v>
@@ -4671,13 +4695,13 @@
         <v>235352</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4692,13 +4716,13 @@
         <v>53979</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="H18" s="7">
         <v>41</v>
@@ -4707,13 +4731,13 @@
         <v>44910</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="M18" s="7">
         <v>89</v>
@@ -4722,13 +4746,13 @@
         <v>98890</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4743,13 +4767,13 @@
         <v>23199</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="H19" s="7">
         <v>26</v>
@@ -4758,13 +4782,13 @@
         <v>27834</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="M19" s="7">
         <v>47</v>
@@ -4773,13 +4797,13 @@
         <v>51033</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4794,13 +4818,13 @@
         <v>11645</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>105</v>
+        <v>193</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -4809,13 +4833,13 @@
         <v>10988</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="M20" s="7">
         <v>20</v>
@@ -4824,13 +4848,13 @@
         <v>22633</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>320</v>
+        <v>101</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4845,13 +4869,13 @@
         <v>479085</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>412</v>
@@ -4860,13 +4884,13 @@
         <v>458631</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>848</v>
@@ -4875,13 +4899,13 @@
         <v>937716</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4898,13 +4922,13 @@
         <v>1783194</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="H22" s="7">
         <v>1458</v>
@@ -4913,13 +4937,13 @@
         <v>1563069</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="M22" s="7">
         <v>3146</v>
@@ -4928,13 +4952,13 @@
         <v>3346263</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>65</v>
+        <v>332</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4949,13 +4973,13 @@
         <v>897061</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="H23" s="7">
         <v>926</v>
@@ -4964,13 +4988,13 @@
         <v>1001992</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="M23" s="7">
         <v>1758</v>
@@ -4979,13 +5003,13 @@
         <v>1899053</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5000,13 +5024,13 @@
         <v>450947</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="H24" s="7">
         <v>456</v>
@@ -5015,13 +5039,13 @@
         <v>498857</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="M24" s="7">
         <v>873</v>
@@ -5030,13 +5054,13 @@
         <v>949804</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>344</v>
+        <v>49</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>346</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5051,13 +5075,13 @@
         <v>200726</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="H25" s="7">
         <v>290</v>
@@ -5066,13 +5090,13 @@
         <v>313463</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="M25" s="7">
         <v>478</v>
@@ -5081,13 +5105,13 @@
         <v>514189</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>227</v>
+        <v>356</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5102,13 +5126,13 @@
         <v>78661</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>357</v>
+        <v>141</v>
       </c>
       <c r="H26" s="7">
         <v>162</v>
@@ -5117,13 +5141,13 @@
         <v>174710</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>142</v>
+        <v>363</v>
       </c>
       <c r="M26" s="7">
         <v>230</v>
@@ -5132,13 +5156,13 @@
         <v>253371</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5153,13 +5177,13 @@
         <v>3410589</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>3292</v>
@@ -5168,13 +5192,13 @@
         <v>3552091</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>6485</v>
@@ -5183,18 +5207,18 @@
         <v>6962680</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -5213,7 +5237,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1418647-BF83-4812-A9AC-1A3C8C559251}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD45AE1-3988-4EA1-8023-A42C0F561FE4}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5230,7 +5254,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5337,13 +5361,13 @@
         <v>304684</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="H4" s="7">
         <v>306</v>
@@ -5352,13 +5376,13 @@
         <v>339666</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="M4" s="7">
         <v>613</v>
@@ -5367,13 +5391,13 @@
         <v>644350</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5388,13 +5412,13 @@
         <v>243178</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="H5" s="7">
         <v>274</v>
@@ -5403,13 +5427,13 @@
         <v>302419</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="M5" s="7">
         <v>519</v>
@@ -5418,13 +5442,13 @@
         <v>545597</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5439,13 +5463,13 @@
         <v>149946</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="H6" s="7">
         <v>187</v>
@@ -5454,13 +5478,13 @@
         <v>211173</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="M6" s="7">
         <v>337</v>
@@ -5469,13 +5493,13 @@
         <v>361120</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5490,13 +5514,13 @@
         <v>49863</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>391</v>
+        <v>361</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="H7" s="7">
         <v>90</v>
@@ -5505,13 +5529,13 @@
         <v>102411</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>131</v>
+        <v>398</v>
       </c>
       <c r="M7" s="7">
         <v>143</v>
@@ -5520,13 +5544,13 @@
         <v>152274</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>180</v>
+        <v>401</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5541,13 +5565,13 @@
         <v>6676</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>143</v>
+        <v>404</v>
       </c>
       <c r="H8" s="7">
         <v>33</v>
@@ -5556,13 +5580,13 @@
         <v>36613</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="M8" s="7">
         <v>40</v>
@@ -5571,13 +5595,13 @@
         <v>43289</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5592,13 +5616,13 @@
         <v>754347</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>890</v>
@@ -5607,13 +5631,13 @@
         <v>992283</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>1652</v>
@@ -5622,18 +5646,18 @@
         <v>1746630</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5645,13 +5669,13 @@
         <v>866173</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>240</v>
+        <v>411</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>406</v>
+        <v>155</v>
       </c>
       <c r="H10" s="7">
         <v>717</v>
@@ -5660,13 +5684,13 @@
         <v>736431</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="M10" s="7">
         <v>1531</v>
@@ -5675,13 +5699,13 @@
         <v>1602603</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5696,13 +5720,13 @@
         <v>726606</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="H11" s="7">
         <v>667</v>
@@ -5711,13 +5735,13 @@
         <v>699573</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="M11" s="7">
         <v>1356</v>
@@ -5726,13 +5750,13 @@
         <v>1426180</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5747,13 +5771,13 @@
         <v>334183</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="H12" s="7">
         <v>324</v>
@@ -5762,13 +5786,13 @@
         <v>342698</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>426</v>
+        <v>220</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="M12" s="7">
         <v>640</v>
@@ -5777,13 +5801,13 @@
         <v>676881</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>429</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>430</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5798,13 +5822,13 @@
         <v>100403</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="H13" s="7">
         <v>132</v>
@@ -5813,13 +5837,13 @@
         <v>140271</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="M13" s="7">
         <v>221</v>
@@ -5828,13 +5852,13 @@
         <v>240673</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5849,13 +5873,13 @@
         <v>44552</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>54</v>
+        <v>445</v>
       </c>
       <c r="H14" s="7">
         <v>65</v>
@@ -5864,13 +5888,13 @@
         <v>65808</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>441</v>
+        <v>282</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="M14" s="7">
         <v>105</v>
@@ -5879,13 +5903,13 @@
         <v>110361</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5900,13 +5924,13 @@
         <v>2071917</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>1905</v>
@@ -5915,13 +5939,13 @@
         <v>1984781</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>3853</v>
@@ -5930,13 +5954,13 @@
         <v>4056698</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5953,13 +5977,13 @@
         <v>275030</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>446</v>
+        <v>327</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="H16" s="7">
         <v>257</v>
@@ -5968,13 +5992,13 @@
         <v>268246</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="M16" s="7">
         <v>513</v>
@@ -5983,13 +6007,13 @@
         <v>543277</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6004,13 +6028,13 @@
         <v>163848</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>166</v>
+        <v>460</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="H17" s="7">
         <v>150</v>
@@ -6019,13 +6043,13 @@
         <v>153124</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="M17" s="7">
         <v>301</v>
@@ -6034,13 +6058,13 @@
         <v>316972</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>117</v>
+        <v>168</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6055,13 +6079,13 @@
         <v>80729</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="H18" s="7">
         <v>68</v>
@@ -6070,13 +6094,13 @@
         <v>71744</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>466</v>
+        <v>401</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>127</v>
+        <v>471</v>
       </c>
       <c r="M18" s="7">
         <v>138</v>
@@ -6085,13 +6109,13 @@
         <v>152473</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>468</v>
+        <v>128</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>469</v>
+        <v>428</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6106,13 +6130,13 @@
         <v>18473</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>471</v>
+        <v>443</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="H19" s="7">
         <v>29</v>
@@ -6121,13 +6145,13 @@
         <v>31878</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="M19" s="7">
         <v>46</v>
@@ -6136,13 +6160,13 @@
         <v>50351</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>441</v>
+        <v>479</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6157,13 +6181,13 @@
         <v>7940</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="H20" s="7">
         <v>21</v>
@@ -6172,13 +6196,13 @@
         <v>23215</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>481</v>
+        <v>447</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="M20" s="7">
         <v>27</v>
@@ -6190,10 +6214,10 @@
         <v>134</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6208,13 +6232,13 @@
         <v>546021</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>525</v>
@@ -6223,13 +6247,13 @@
         <v>548206</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>1025</v>
@@ -6238,13 +6262,13 @@
         <v>1094227</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6261,13 +6285,13 @@
         <v>1445887</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>487</v>
+        <v>418</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H22" s="7">
         <v>1280</v>
@@ -6276,28 +6300,28 @@
         <v>1344343</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M22" s="7">
         <v>2657</v>
       </c>
       <c r="N22" s="7">
-        <v>2790231</v>
+        <v>2790230</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>11</v>
+        <v>495</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6312,13 +6336,13 @@
         <v>1133632</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>381</v>
+        <v>496</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="H23" s="7">
         <v>1091</v>
@@ -6327,13 +6351,13 @@
         <v>1155116</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>497</v>
+        <v>383</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="M23" s="7">
         <v>2176</v>
@@ -6342,13 +6366,13 @@
         <v>2288748</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6363,13 +6387,13 @@
         <v>564859</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="H24" s="7">
         <v>579</v>
@@ -6378,13 +6402,13 @@
         <v>625615</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="M24" s="7">
         <v>1115</v>
@@ -6393,13 +6417,13 @@
         <v>1190474</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>464</v>
+        <v>512</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6414,13 +6438,13 @@
         <v>168739</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>140</v>
+        <v>514</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="H25" s="7">
         <v>251</v>
@@ -6429,28 +6453,28 @@
         <v>274560</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="M25" s="7">
         <v>410</v>
       </c>
       <c r="N25" s="7">
-        <v>443299</v>
+        <v>443298</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>515</v>
+        <v>273</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>516</v>
+        <v>475</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6465,13 +6489,13 @@
         <v>59168</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>186</v>
+        <v>359</v>
       </c>
       <c r="H26" s="7">
         <v>119</v>
@@ -6480,10 +6504,10 @@
         <v>125636</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>520</v>
+        <v>277</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>521</v>
+        <v>445</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>522</v>
@@ -6516,13 +6540,13 @@
         <v>3372285</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>3320</v>
@@ -6531,33 +6555,33 @@
         <v>3525270</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>6530</v>
       </c>
       <c r="N27" s="7">
-        <v>6897555</v>
+        <v>6897554</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -6576,7 +6600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D9AA3E-20A8-4D60-8A23-3461920F2219}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE878A8-507A-493B-8E3F-6C697F7B94A9}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6802,13 +6826,13 @@
         <v>82746</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>546</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>547</v>
       </c>
       <c r="H6" s="7">
         <v>243</v>
@@ -6817,13 +6841,13 @@
         <v>139957</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>549</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>550</v>
       </c>
       <c r="M6" s="7">
         <v>352</v>
@@ -6832,13 +6856,13 @@
         <v>222704</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>552</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6853,13 +6877,13 @@
         <v>37667</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>555</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>556</v>
       </c>
       <c r="H7" s="7">
         <v>127</v>
@@ -6868,13 +6892,13 @@
         <v>73156</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>559</v>
       </c>
       <c r="M7" s="7">
         <v>177</v>
@@ -6883,13 +6907,13 @@
         <v>110823</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>561</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6904,13 +6928,13 @@
         <v>21609</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>563</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>564</v>
       </c>
       <c r="H8" s="7">
         <v>53</v>
@@ -6919,13 +6943,13 @@
         <v>36387</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>565</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>566</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="M8" s="7">
         <v>81</v>
@@ -6934,7 +6958,7 @@
         <v>57995</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>359</v>
+        <v>566</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>567</v>
@@ -6955,13 +6979,13 @@
         <v>540780</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>1420</v>
@@ -6970,13 +6994,13 @@
         <v>831975</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>2110</v>
@@ -6985,18 +7009,18 @@
         <v>1372755</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -7044,7 +7068,7 @@
         <v>576</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>284</v>
+        <v>577</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7059,13 +7083,13 @@
         <v>545899</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H11" s="7">
         <v>919</v>
@@ -7074,7 +7098,7 @@
         <v>595761</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>580</v>
+        <v>336</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>581</v>
@@ -7089,13 +7113,13 @@
         <v>1141659</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>333</v>
+        <v>583</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7110,13 +7134,13 @@
         <v>215937</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H12" s="7">
         <v>304</v>
@@ -7125,13 +7149,13 @@
         <v>218307</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M12" s="7">
         <v>518</v>
@@ -7140,13 +7164,13 @@
         <v>434244</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>180</v>
+        <v>592</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>254</v>
+        <v>594</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7161,13 +7185,13 @@
         <v>69313</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>361</v>
+        <v>311</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>593</v>
+        <v>476</v>
       </c>
       <c r="H13" s="7">
         <v>165</v>
@@ -7176,13 +7200,13 @@
         <v>110917</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>235</v>
+        <v>597</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>178</v>
+        <v>598</v>
       </c>
       <c r="M13" s="7">
         <v>244</v>
@@ -7191,13 +7215,13 @@
         <v>180229</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7212,13 +7236,13 @@
         <v>35775</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="H14" s="7">
         <v>69</v>
@@ -7227,13 +7251,13 @@
         <v>46660</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>146</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="M14" s="7">
         <v>110</v>
@@ -7242,13 +7266,13 @@
         <v>82435</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>484</v>
+        <v>276</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>603</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7263,13 +7287,13 @@
         <v>2156038</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>2915</v>
@@ -7278,13 +7302,13 @@
         <v>2135230</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>4903</v>
@@ -7293,13 +7317,13 @@
         <v>4291268</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7316,13 +7340,13 @@
         <v>422516</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="H16" s="7">
         <v>576</v>
@@ -7331,13 +7355,13 @@
         <v>431899</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="M16" s="7">
         <v>986</v>
@@ -7346,13 +7370,13 @@
         <v>854416</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7367,13 +7391,13 @@
         <v>166061</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H17" s="7">
         <v>285</v>
@@ -7382,13 +7406,13 @@
         <v>184785</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>616</v>
+        <v>71</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="M17" s="7">
         <v>464</v>
@@ -7397,13 +7421,13 @@
         <v>350847</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>206</v>
+        <v>623</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7418,13 +7442,13 @@
         <v>45859</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>401</v>
+        <v>625</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>129</v>
+        <v>626</v>
       </c>
       <c r="H18" s="7">
         <v>66</v>
@@ -7433,13 +7457,13 @@
         <v>47756</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="M18" s="7">
         <v>118</v>
@@ -7448,13 +7472,13 @@
         <v>93615</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7469,13 +7493,13 @@
         <v>23296</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="H19" s="7">
         <v>51</v>
@@ -7484,13 +7508,13 @@
         <v>33776</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>233</v>
+        <v>637</v>
       </c>
       <c r="M19" s="7">
         <v>76</v>
@@ -7499,13 +7523,13 @@
         <v>57071</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>567</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7520,13 +7544,13 @@
         <v>12310</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>356</v>
+        <v>639</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="H20" s="7">
         <v>24</v>
@@ -7535,13 +7559,13 @@
         <v>15053</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>480</v>
+        <v>644</v>
       </c>
       <c r="M20" s="7">
         <v>36</v>
@@ -7550,13 +7574,13 @@
         <v>27362</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7571,13 +7595,13 @@
         <v>670042</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>1002</v>
@@ -7586,13 +7610,13 @@
         <v>713269</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>1680</v>
@@ -7601,13 +7625,13 @@
         <v>1383311</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7624,13 +7648,13 @@
         <v>1965543</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="H22" s="7">
         <v>2626</v>
@@ -7639,13 +7663,13 @@
         <v>1948242</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>645</v>
+        <v>653</v>
       </c>
       <c r="M22" s="7">
         <v>4446</v>
@@ -7654,13 +7678,13 @@
         <v>3913786</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>646</v>
+        <v>654</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7675,13 +7699,13 @@
         <v>856805</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="H23" s="7">
         <v>1609</v>
@@ -7690,13 +7714,13 @@
         <v>1010262</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="M23" s="7">
         <v>2535</v>
@@ -7705,13 +7729,13 @@
         <v>1867067</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7726,13 +7750,13 @@
         <v>344543</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="H24" s="7">
         <v>613</v>
@@ -7741,13 +7765,13 @@
         <v>406021</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>660</v>
+        <v>258</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
       <c r="M24" s="7">
         <v>988</v>
@@ -7756,13 +7780,13 @@
         <v>750563</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>663</v>
+        <v>132</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7777,13 +7801,13 @@
         <v>130276</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>315</v>
+        <v>674</v>
       </c>
       <c r="H25" s="7">
         <v>343</v>
@@ -7795,10 +7819,10 @@
         <v>137</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="M25" s="7">
         <v>497</v>
@@ -7807,13 +7831,13 @@
         <v>348124</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>275</v>
+        <v>678</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7828,13 +7852,13 @@
         <v>69694</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="H26" s="7">
         <v>146</v>
@@ -7843,13 +7867,13 @@
         <v>98099</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="M26" s="7">
         <v>227</v>
@@ -7858,13 +7882,13 @@
         <v>167793</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>676</v>
+        <v>684</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7879,13 +7903,13 @@
         <v>3366860</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>5337</v>
@@ -7894,13 +7918,13 @@
         <v>3680473</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>8693</v>
@@ -7909,18 +7933,18 @@
         <v>7047334</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P5702-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P5702-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9A03313-31BD-430E-B5B1-9787AE7DAB3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBAC4374-FE6A-4B6D-862D-FDF9D2030872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{326981F7-42CC-4995-B44B-AFEBDAAC27A7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C07878CC-1C0E-49D6-9FA4-DD668874C3F9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="682">
   <si>
     <t>Población según la frecuencia de recibir ayuda en asuntos relacionados con mi casa en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>41,67%</t>
   </si>
   <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
   </si>
   <si>
     <t>35,97%</t>
   </si>
   <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
   </si>
   <si>
     <t>38,48%</t>
   </si>
   <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
   </si>
   <si>
     <t>Casi como deseo</t>
@@ -107,1999 +107,1984 @@
     <t>28,57%</t>
   </si>
   <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
   </si>
   <si>
     <t>26,52%</t>
   </si>
   <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
   </si>
   <si>
     <t>27,42%</t>
   </si>
   <si>
-    <t>25,64%</t>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>Ni mucho ni poco</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>Menos de lo que deseo</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>Mucho menos de lo que deseo</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de recibir ayuda en asuntos relacionados con mi casa en 2012 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
   </si>
   <si>
     <t>29,3%</t>
   </si>
   <si>
-    <t>Ni mucho ni poco</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>Menos de lo que deseo</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
   </si>
   <si>
     <t>13,64%</t>
   </si>
   <si>
-    <t>Mucho menos de lo que deseo</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de recibir ayuda en asuntos relacionados con mi casa en 2016 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
   </si>
   <si>
     <t>2,08%</t>
   </si>
   <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de recibir ayuda en asuntos relacionados con mi casa en 2023 (Tasa respuesta: 99,66%)</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>55,45%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
   </si>
   <si>
     <t>25,91%</t>
   </si>
   <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
   </si>
   <si>
     <t>10,65%</t>
   </si>
   <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de recibir ayuda en asuntos relacionados con mi casa en 2012 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de recibir ayuda en asuntos relacionados con mi casa en 2016 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
   </si>
   <si>
     <t>2,22%</t>
   </si>
   <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de recibir ayuda en asuntos relacionados con mi casa en 2023 (Tasa respuesta: 99,66%)</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>62,95%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
     <t>2,38%</t>
   </si>
   <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
+    <t>2,8%</t>
   </si>
 </sst>
 </file>
@@ -2511,7 +2496,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2265B46-2B2E-48B6-806D-3BF8D9467BD2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8033C6F1-D11C-4FE3-ADA0-4888677F4ED7}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2872,10 +2857,10 @@
         <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2890,13 +2875,13 @@
         <v>1031723</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>1291</v>
@@ -2905,13 +2890,13 @@
         <v>1315113</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>2329</v>
@@ -2920,18 +2905,18 @@
         <v>2346836</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2940,16 +2925,16 @@
         <v>865</v>
       </c>
       <c r="D10" s="7">
-        <v>897133</v>
+        <v>897132</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>739</v>
@@ -2958,13 +2943,13 @@
         <v>744173</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>1604</v>
@@ -2973,13 +2958,13 @@
         <v>1641306</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2994,13 +2979,13 @@
         <v>473814</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>408</v>
@@ -3009,13 +2994,13 @@
         <v>412818</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>881</v>
@@ -3024,13 +3009,13 @@
         <v>886632</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3042,16 +3027,16 @@
         <v>223</v>
       </c>
       <c r="D12" s="7">
-        <v>229147</v>
+        <v>229146</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>235</v>
@@ -3060,13 +3045,13 @@
         <v>243844</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>458</v>
@@ -3075,13 +3060,13 @@
         <v>472990</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3096,13 +3081,13 @@
         <v>63579</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>140</v>
@@ -3111,13 +3096,13 @@
         <v>153140</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>201</v>
@@ -3126,13 +3111,13 @@
         <v>216719</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3147,13 +3132,13 @@
         <v>29741</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>32</v>
@@ -3162,13 +3147,13 @@
         <v>33699</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>59</v>
@@ -3177,13 +3162,13 @@
         <v>63439</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3195,16 +3180,16 @@
         <v>1649</v>
       </c>
       <c r="D15" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>1554</v>
@@ -3213,13 +3198,13 @@
         <v>1587673</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>3203</v>
@@ -3228,18 +3213,18 @@
         <v>3281086</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3251,13 +3236,13 @@
         <v>288535</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>258</v>
@@ -3266,13 +3251,13 @@
         <v>269472</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>536</v>
@@ -3281,13 +3266,13 @@
         <v>558007</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3302,13 +3287,13 @@
         <v>163788</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>109</v>
@@ -3317,13 +3302,13 @@
         <v>114790</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>263</v>
@@ -3332,13 +3317,13 @@
         <v>278578</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3353,13 +3338,13 @@
         <v>73796</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>53</v>
@@ -3368,13 +3353,13 @@
         <v>55916</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M18" s="7">
         <v>123</v>
@@ -3383,13 +3368,13 @@
         <v>129712</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3404,13 +3389,13 @@
         <v>15742</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H19" s="7">
         <v>26</v>
@@ -3419,13 +3404,13 @@
         <v>28190</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M19" s="7">
         <v>43</v>
@@ -3434,13 +3419,13 @@
         <v>43932</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3455,13 +3440,13 @@
         <v>9546</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -3470,13 +3455,13 @@
         <v>8045</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M20" s="7">
         <v>14</v>
@@ -3485,13 +3470,13 @@
         <v>17591</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3506,13 +3491,13 @@
         <v>551408</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>452</v>
@@ -3521,13 +3506,13 @@
         <v>476412</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>979</v>
@@ -3536,13 +3521,13 @@
         <v>1027820</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3586,7 +3571,7 @@
         <v>3046</v>
       </c>
       <c r="N22" s="7">
-        <v>3102297</v>
+        <v>3102296</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>158</v>
@@ -3607,16 +3592,16 @@
         <v>925</v>
       </c>
       <c r="D23" s="7">
-        <v>932393</v>
+        <v>932394</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H23" s="7">
         <v>860</v>
@@ -3625,13 +3610,13 @@
         <v>876312</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M23" s="7">
         <v>1785</v>
@@ -3640,13 +3625,13 @@
         <v>1808705</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3661,13 +3646,13 @@
         <v>500663</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H24" s="7">
         <v>541</v>
@@ -3676,13 +3661,13 @@
         <v>558981</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M24" s="7">
         <v>1035</v>
@@ -3691,13 +3676,13 @@
         <v>1059644</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3712,13 +3697,13 @@
         <v>171144</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H25" s="7">
         <v>354</v>
@@ -3727,13 +3712,13 @@
         <v>377858</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M25" s="7">
         <v>521</v>
@@ -3742,13 +3727,13 @@
         <v>549002</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>185</v>
+        <v>93</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3763,13 +3748,13 @@
         <v>56775</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H26" s="7">
         <v>74</v>
@@ -3781,10 +3766,10 @@
         <v>57</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>191</v>
+        <v>53</v>
       </c>
       <c r="M26" s="7">
         <v>124</v>
@@ -3793,13 +3778,13 @@
         <v>136094</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3811,16 +3796,16 @@
         <v>3214</v>
       </c>
       <c r="D27" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>3297</v>
@@ -3829,33 +3814,33 @@
         <v>3379198</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>6511</v>
       </c>
       <c r="N27" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -3874,7 +3859,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F42E6391-2061-40A1-AF5A-B207A381C275}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4027EF6-FDEF-4BE5-AC40-596684AAFD4B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3891,7 +3876,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3998,13 +3983,13 @@
         <v>457073</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H4" s="7">
         <v>504</v>
@@ -4013,13 +3998,13 @@
         <v>538119</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="M4" s="7">
         <v>935</v>
@@ -4028,13 +4013,13 @@
         <v>995192</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4049,13 +4034,13 @@
         <v>274714</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H5" s="7">
         <v>371</v>
@@ -4064,13 +4049,13 @@
         <v>402335</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="M5" s="7">
         <v>625</v>
@@ -4079,13 +4064,13 @@
         <v>677049</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4100,13 +4085,13 @@
         <v>152386</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H6" s="7">
         <v>190</v>
@@ -4115,13 +4100,13 @@
         <v>205018</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="M6" s="7">
         <v>328</v>
@@ -4130,13 +4115,13 @@
         <v>357403</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4151,13 +4136,13 @@
         <v>69329</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="H7" s="7">
         <v>117</v>
@@ -4166,13 +4151,13 @@
         <v>124703</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="M7" s="7">
         <v>182</v>
@@ -4181,13 +4166,13 @@
         <v>194033</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4202,13 +4187,13 @@
         <v>16301</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="H8" s="7">
         <v>64</v>
@@ -4217,13 +4202,13 @@
         <v>66582</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="M8" s="7">
         <v>79</v>
@@ -4232,13 +4217,13 @@
         <v>82883</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4253,13 +4238,13 @@
         <v>969803</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>1246</v>
@@ -4268,13 +4253,13 @@
         <v>1336757</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>2149</v>
@@ -4283,18 +4268,18 @@
         <v>2306560</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4306,13 +4291,13 @@
         <v>1045983</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>242</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>728</v>
@@ -4321,13 +4306,13 @@
         <v>775279</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>244</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="M10" s="7">
         <v>1728</v>
@@ -4336,13 +4321,13 @@
         <v>1821261</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4357,13 +4342,13 @@
         <v>512224</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H11" s="7">
         <v>447</v>
@@ -4372,13 +4357,13 @@
         <v>474429</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>252</v>
+        <v>161</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>26</v>
+        <v>246</v>
       </c>
       <c r="M11" s="7">
         <v>924</v>
@@ -4387,13 +4372,13 @@
         <v>986652</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4408,13 +4393,13 @@
         <v>244582</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="H12" s="7">
         <v>225</v>
@@ -4423,13 +4408,13 @@
         <v>248929</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="M12" s="7">
         <v>456</v>
@@ -4438,13 +4423,13 @@
         <v>493511</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>264</v>
+        <v>182</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4459,13 +4444,13 @@
         <v>108198</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="H13" s="7">
         <v>147</v>
@@ -4474,13 +4459,13 @@
         <v>160925</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="M13" s="7">
         <v>249</v>
@@ -4489,13 +4474,13 @@
         <v>269123</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4510,13 +4495,13 @@
         <v>50715</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>276</v>
+        <v>104</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="H14" s="7">
         <v>87</v>
@@ -4525,13 +4510,13 @@
         <v>97141</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="M14" s="7">
         <v>131</v>
@@ -4540,13 +4525,13 @@
         <v>147856</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4558,16 +4543,16 @@
         <v>1854</v>
       </c>
       <c r="D15" s="7">
-        <v>1961702</v>
+        <v>1961701</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>1634</v>
@@ -4576,13 +4561,13 @@
         <v>1756703</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>3488</v>
@@ -4591,18 +4576,18 @@
         <v>3718404</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4614,13 +4599,13 @@
         <v>280138</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="H16" s="7">
         <v>226</v>
@@ -4629,13 +4614,13 @@
         <v>249671</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="M16" s="7">
         <v>483</v>
@@ -4644,13 +4629,13 @@
         <v>529809</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>109</v>
+        <v>281</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4665,13 +4650,13 @@
         <v>110124</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="H17" s="7">
         <v>108</v>
@@ -4680,13 +4665,13 @@
         <v>125228</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="M17" s="7">
         <v>209</v>
@@ -4695,13 +4680,13 @@
         <v>235352</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4716,13 +4701,13 @@
         <v>53979</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="H18" s="7">
         <v>41</v>
@@ -4731,13 +4716,13 @@
         <v>44910</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>305</v>
+        <v>264</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="M18" s="7">
         <v>89</v>
@@ -4746,13 +4731,13 @@
         <v>98890</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4767,13 +4752,13 @@
         <v>23199</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="H19" s="7">
         <v>26</v>
@@ -4782,13 +4767,13 @@
         <v>27834</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>313</v>
+        <v>179</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="M19" s="7">
         <v>47</v>
@@ -4797,13 +4782,13 @@
         <v>51033</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4818,13 +4803,13 @@
         <v>11645</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>193</v>
+        <v>106</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -4833,13 +4818,13 @@
         <v>10988</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="M20" s="7">
         <v>20</v>
@@ -4848,13 +4833,13 @@
         <v>22633</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>101</v>
+        <v>315</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4869,13 +4854,13 @@
         <v>479085</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>412</v>
@@ -4884,13 +4869,13 @@
         <v>458631</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>848</v>
@@ -4899,13 +4884,13 @@
         <v>937716</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4922,13 +4907,13 @@
         <v>1783194</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="H22" s="7">
         <v>1458</v>
@@ -4940,10 +4925,10 @@
         <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="M22" s="7">
         <v>3146</v>
@@ -4952,13 +4937,13 @@
         <v>3346263</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>333</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4973,13 +4958,13 @@
         <v>897061</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="H23" s="7">
         <v>926</v>
@@ -4988,13 +4973,13 @@
         <v>1001992</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="M23" s="7">
         <v>1758</v>
@@ -5003,13 +4988,13 @@
         <v>1899053</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5024,13 +5009,13 @@
         <v>450947</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="H24" s="7">
         <v>456</v>
@@ -5039,13 +5024,13 @@
         <v>498857</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="M24" s="7">
         <v>873</v>
@@ -5054,13 +5039,13 @@
         <v>949804</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>49</v>
+        <v>339</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>265</v>
+        <v>341</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5075,13 +5060,13 @@
         <v>200726</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="H25" s="7">
         <v>290</v>
@@ -5090,13 +5075,13 @@
         <v>313463</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="M25" s="7">
         <v>478</v>
@@ -5105,13 +5090,13 @@
         <v>514189</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>357</v>
+        <v>271</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5126,13 +5111,13 @@
         <v>78661</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>359</v>
+        <v>186</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>141</v>
+        <v>351</v>
       </c>
       <c r="H26" s="7">
         <v>162</v>
@@ -5141,13 +5126,13 @@
         <v>174710</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="M26" s="7">
         <v>230</v>
@@ -5156,13 +5141,13 @@
         <v>253371</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5177,13 +5162,13 @@
         <v>3410589</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>3292</v>
@@ -5192,13 +5177,13 @@
         <v>3552091</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>6485</v>
@@ -5207,18 +5192,18 @@
         <v>6962680</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -5237,7 +5222,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD45AE1-3988-4EA1-8023-A42C0F561FE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83F26C6-EC31-49C4-BA22-F967FAB34D3D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5254,7 +5239,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5361,13 +5346,13 @@
         <v>304684</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="H4" s="7">
         <v>306</v>
@@ -5376,13 +5361,13 @@
         <v>339666</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="M4" s="7">
         <v>613</v>
@@ -5391,13 +5376,13 @@
         <v>644350</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5412,13 +5397,13 @@
         <v>243178</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="H5" s="7">
         <v>274</v>
@@ -5427,13 +5412,13 @@
         <v>302419</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="M5" s="7">
         <v>519</v>
@@ -5442,13 +5427,13 @@
         <v>545597</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5463,13 +5448,13 @@
         <v>149946</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="H6" s="7">
         <v>187</v>
@@ -5478,13 +5463,13 @@
         <v>211173</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="M6" s="7">
         <v>337</v>
@@ -5493,13 +5478,13 @@
         <v>361120</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5514,13 +5499,13 @@
         <v>49863</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>361</v>
+        <v>385</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="H7" s="7">
         <v>90</v>
@@ -5529,13 +5514,13 @@
         <v>102411</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>397</v>
+        <v>294</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="M7" s="7">
         <v>143</v>
@@ -5544,13 +5529,13 @@
         <v>152274</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5565,13 +5550,13 @@
         <v>6676</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>404</v>
+        <v>98</v>
       </c>
       <c r="H8" s="7">
         <v>33</v>
@@ -5580,13 +5565,13 @@
         <v>36613</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="M8" s="7">
         <v>40</v>
@@ -5595,13 +5580,13 @@
         <v>43289</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>409</v>
+        <v>98</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>410</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5616,13 +5601,13 @@
         <v>754347</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>890</v>
@@ -5631,13 +5616,13 @@
         <v>992283</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>1652</v>
@@ -5646,18 +5631,18 @@
         <v>1746630</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5669,13 +5654,13 @@
         <v>866173</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>155</v>
+        <v>400</v>
       </c>
       <c r="H10" s="7">
         <v>717</v>
@@ -5684,13 +5669,13 @@
         <v>736431</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="M10" s="7">
         <v>1531</v>
@@ -5699,13 +5684,13 @@
         <v>1602603</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5720,13 +5705,13 @@
         <v>726606</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="H11" s="7">
         <v>667</v>
@@ -5735,13 +5720,13 @@
         <v>699573</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="M11" s="7">
         <v>1356</v>
@@ -5750,13 +5735,13 @@
         <v>1426180</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5771,13 +5756,13 @@
         <v>334183</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="H12" s="7">
         <v>324</v>
@@ -5786,13 +5771,13 @@
         <v>342698</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="M12" s="7">
         <v>640</v>
@@ -5801,13 +5786,13 @@
         <v>676881</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>87</v>
+        <v>423</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>175</v>
+        <v>424</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5822,13 +5807,13 @@
         <v>100403</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="H13" s="7">
         <v>132</v>
@@ -5837,13 +5822,13 @@
         <v>140271</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="M13" s="7">
         <v>221</v>
@@ -5852,13 +5837,13 @@
         <v>240673</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5873,13 +5858,13 @@
         <v>44552</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="H14" s="7">
         <v>65</v>
@@ -5888,13 +5873,13 @@
         <v>65808</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>282</v>
+        <v>146</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="M14" s="7">
         <v>105</v>
@@ -5903,13 +5888,13 @@
         <v>110361</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5924,13 +5909,13 @@
         <v>2071917</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>1905</v>
@@ -5939,13 +5924,13 @@
         <v>1984781</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>3853</v>
@@ -5954,18 +5939,18 @@
         <v>4056698</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5977,13 +5962,13 @@
         <v>275030</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>327</v>
+        <v>442</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="H16" s="7">
         <v>257</v>
@@ -5992,13 +5977,13 @@
         <v>268246</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="M16" s="7">
         <v>513</v>
@@ -6007,13 +5992,13 @@
         <v>543277</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6028,13 +6013,13 @@
         <v>163848</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="H17" s="7">
         <v>150</v>
@@ -6043,13 +6028,13 @@
         <v>153124</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="M17" s="7">
         <v>301</v>
@@ -6058,13 +6043,13 @@
         <v>316972</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>168</v>
+        <v>458</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6079,13 +6064,13 @@
         <v>80729</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H18" s="7">
         <v>68</v>
@@ -6094,13 +6079,13 @@
         <v>71744</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>401</v>
+        <v>464</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="M18" s="7">
         <v>138</v>
@@ -6109,13 +6094,13 @@
         <v>152473</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>128</v>
+        <v>467</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>428</v>
+        <v>468</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6130,13 +6115,13 @@
         <v>18473</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>443</v>
+        <v>470</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="H19" s="7">
         <v>29</v>
@@ -6145,13 +6130,13 @@
         <v>31878</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="M19" s="7">
         <v>46</v>
@@ -6160,13 +6145,13 @@
         <v>50351</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>479</v>
+        <v>356</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6181,13 +6166,13 @@
         <v>7940</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="H20" s="7">
         <v>21</v>
@@ -6196,13 +6181,13 @@
         <v>23215</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>447</v>
+        <v>480</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="M20" s="7">
         <v>27</v>
@@ -6211,13 +6196,13 @@
         <v>31154</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6232,13 +6217,13 @@
         <v>546021</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>525</v>
@@ -6247,13 +6232,13 @@
         <v>548206</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>1025</v>
@@ -6262,13 +6247,13 @@
         <v>1094227</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6285,13 +6270,13 @@
         <v>1445887</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>418</v>
+        <v>486</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H22" s="7">
         <v>1280</v>
@@ -6300,13 +6285,13 @@
         <v>1344343</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>490</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>492</v>
       </c>
       <c r="M22" s="7">
         <v>2657</v>
@@ -6315,13 +6300,13 @@
         <v>2790230</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>493</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6336,13 +6321,13 @@
         <v>1133632</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>496</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>498</v>
       </c>
       <c r="H23" s="7">
         <v>1091</v>
@@ -6351,13 +6336,13 @@
         <v>1155116</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>499</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>500</v>
       </c>
       <c r="M23" s="7">
         <v>2176</v>
@@ -6366,13 +6351,13 @@
         <v>2288748</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>502</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6387,13 +6372,13 @@
         <v>564859</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>504</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>506</v>
       </c>
       <c r="H24" s="7">
         <v>579</v>
@@ -6402,13 +6387,13 @@
         <v>625615</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>507</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>509</v>
       </c>
       <c r="M24" s="7">
         <v>1115</v>
@@ -6417,13 +6402,13 @@
         <v>1190474</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>510</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6438,13 +6423,13 @@
         <v>168739</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>513</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>515</v>
       </c>
       <c r="H25" s="7">
         <v>251</v>
@@ -6453,13 +6438,13 @@
         <v>274560</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>518</v>
       </c>
       <c r="M25" s="7">
         <v>410</v>
@@ -6468,13 +6453,13 @@
         <v>443298</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>475</v>
+        <v>517</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6489,13 +6474,13 @@
         <v>59168</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>521</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="H26" s="7">
         <v>119</v>
@@ -6504,13 +6489,13 @@
         <v>125636</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>277</v>
+        <v>522</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>445</v>
+        <v>523</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="M26" s="7">
         <v>172</v>
@@ -6519,13 +6504,13 @@
         <v>184804</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>524</v>
+        <v>186</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6540,13 +6525,13 @@
         <v>3372285</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>3320</v>
@@ -6555,13 +6540,13 @@
         <v>3525270</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>6530</v>
@@ -6570,18 +6555,18 @@
         <v>6897554</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -6600,7 +6585,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE878A8-507A-493B-8E3F-6C697F7B94A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5903F0EE-AD00-4A40-8E1D-3537A67DDD65}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6617,7 +6602,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6724,13 +6709,13 @@
         <v>253913</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H4" s="7">
         <v>592</v>
@@ -6739,13 +6724,13 @@
         <v>352758</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="M4" s="7">
         <v>911</v>
@@ -6754,13 +6739,13 @@
         <v>606671</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6775,13 +6760,13 @@
         <v>144845</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H5" s="7">
         <v>405</v>
@@ -6790,13 +6775,13 @@
         <v>229717</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M5" s="7">
         <v>589</v>
@@ -6805,13 +6790,13 @@
         <v>374561</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6826,13 +6811,13 @@
         <v>82746</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>348</v>
+        <v>546</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="H6" s="7">
         <v>243</v>
@@ -6841,13 +6826,13 @@
         <v>139957</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="M6" s="7">
         <v>352</v>
@@ -6856,13 +6841,13 @@
         <v>222704</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6877,13 +6862,13 @@
         <v>37667</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>555</v>
+        <v>221</v>
       </c>
       <c r="H7" s="7">
         <v>127</v>
@@ -6892,10 +6877,10 @@
         <v>73156</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>557</v>
+        <v>390</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>558</v>
@@ -6913,7 +6898,7 @@
         <v>560</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6928,13 +6913,13 @@
         <v>21609</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>563</v>
+        <v>427</v>
       </c>
       <c r="H8" s="7">
         <v>53</v>
@@ -6946,10 +6931,10 @@
         <v>564</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>365</v>
+        <v>59</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>565</v>
+        <v>262</v>
       </c>
       <c r="M8" s="7">
         <v>81</v>
@@ -6958,13 +6943,13 @@
         <v>57995</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>567</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6979,13 +6964,13 @@
         <v>540780</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>1420</v>
@@ -6994,13 +6979,13 @@
         <v>831975</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>2110</v>
@@ -7009,18 +6994,18 @@
         <v>1372755</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -7032,13 +7017,13 @@
         <v>1289114</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>569</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>570</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>571</v>
       </c>
       <c r="H10" s="7">
         <v>1458</v>
@@ -7047,13 +7032,13 @@
         <v>1163585</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>573</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>574</v>
       </c>
       <c r="M10" s="7">
         <v>2549</v>
@@ -7062,13 +7047,13 @@
         <v>2452700</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>576</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7083,13 +7068,13 @@
         <v>545899</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>578</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>579</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>580</v>
       </c>
       <c r="H11" s="7">
         <v>919</v>
@@ -7098,13 +7083,13 @@
         <v>595761</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>336</v>
+        <v>579</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>581</v>
+        <v>242</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="M11" s="7">
         <v>1482</v>
@@ -7113,13 +7098,13 @@
         <v>1141659</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>584</v>
+        <v>245</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7134,13 +7119,13 @@
         <v>215937</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="H12" s="7">
         <v>304</v>
@@ -7149,13 +7134,13 @@
         <v>218307</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>589</v>
+        <v>391</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="M12" s="7">
         <v>518</v>
@@ -7164,13 +7149,13 @@
         <v>434244</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>592</v>
+        <v>464</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7185,13 +7170,13 @@
         <v>69313</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>311</v>
+        <v>590</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>476</v>
+        <v>304</v>
       </c>
       <c r="H13" s="7">
         <v>165</v>
@@ -7200,13 +7185,13 @@
         <v>110917</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="M13" s="7">
         <v>244</v>
@@ -7215,13 +7200,13 @@
         <v>180229</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7236,13 +7221,13 @@
         <v>35775</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>603</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="H14" s="7">
         <v>69</v>
@@ -7251,13 +7236,13 @@
         <v>46660</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>146</v>
+        <v>598</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="M14" s="7">
         <v>110</v>
@@ -7266,13 +7251,13 @@
         <v>82435</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>276</v>
+        <v>602</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>104</v>
+        <v>603</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>607</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7287,13 +7272,13 @@
         <v>2156038</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>2915</v>
@@ -7302,13 +7287,13 @@
         <v>2135230</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>4903</v>
@@ -7317,18 +7302,18 @@
         <v>4291268</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7340,13 +7325,13 @@
         <v>422516</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="H16" s="7">
         <v>576</v>
@@ -7355,13 +7340,13 @@
         <v>431899</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="M16" s="7">
         <v>986</v>
@@ -7370,13 +7355,13 @@
         <v>854416</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7391,13 +7376,13 @@
         <v>166061</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>161</v>
+        <v>615</v>
       </c>
       <c r="H17" s="7">
         <v>285</v>
@@ -7406,13 +7391,13 @@
         <v>184785</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>71</v>
+        <v>616</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="M17" s="7">
         <v>464</v>
@@ -7421,13 +7406,13 @@
         <v>350847</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>621</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>622</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7442,13 +7427,13 @@
         <v>45859</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>625</v>
+        <v>432</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="H18" s="7">
         <v>66</v>
@@ -7457,13 +7442,13 @@
         <v>47756</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>629</v>
+        <v>299</v>
       </c>
       <c r="M18" s="7">
         <v>118</v>
@@ -7472,13 +7457,13 @@
         <v>93615</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>630</v>
+        <v>271</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>92</v>
+        <v>627</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7493,13 +7478,13 @@
         <v>23296</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="H19" s="7">
         <v>51</v>
@@ -7508,13 +7493,13 @@
         <v>33776</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>636</v>
+        <v>233</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="M19" s="7">
         <v>76</v>
@@ -7523,13 +7508,13 @@
         <v>57071</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>567</v>
+        <v>634</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7544,13 +7529,13 @@
         <v>12310</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>641</v>
+        <v>356</v>
       </c>
       <c r="H20" s="7">
         <v>24</v>
@@ -7559,13 +7544,13 @@
         <v>15053</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="M20" s="7">
         <v>36</v>
@@ -7574,13 +7559,13 @@
         <v>27362</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7595,13 +7580,13 @@
         <v>670042</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>1002</v>
@@ -7610,13 +7595,13 @@
         <v>713269</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>1680</v>
@@ -7625,13 +7610,13 @@
         <v>1383311</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7648,13 +7633,13 @@
         <v>1965543</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="H22" s="7">
         <v>2626</v>
@@ -7663,13 +7648,13 @@
         <v>1948242</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="M22" s="7">
         <v>4446</v>
@@ -7678,13 +7663,13 @@
         <v>3913786</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7699,13 +7684,13 @@
         <v>856805</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="H23" s="7">
         <v>1609</v>
@@ -7714,13 +7699,13 @@
         <v>1010262</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="M23" s="7">
         <v>2535</v>
@@ -7729,13 +7714,13 @@
         <v>1867067</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7750,13 +7735,13 @@
         <v>344543</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>593</v>
+        <v>663</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="H24" s="7">
         <v>613</v>
@@ -7765,13 +7750,13 @@
         <v>406021</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="M24" s="7">
         <v>988</v>
@@ -7780,13 +7765,13 @@
         <v>750563</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>132</v>
+        <v>667</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7801,13 +7786,13 @@
         <v>130276</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>673</v>
+        <v>590</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="H25" s="7">
         <v>343</v>
@@ -7816,13 +7801,13 @@
         <v>217848</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="M25" s="7">
         <v>497</v>
@@ -7831,13 +7816,13 @@
         <v>348124</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>678</v>
+        <v>270</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>316</v>
+        <v>675</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7852,13 +7837,13 @@
         <v>69694</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>681</v>
+        <v>437</v>
       </c>
       <c r="H26" s="7">
         <v>146</v>
@@ -7867,13 +7852,13 @@
         <v>98099</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>636</v>
+        <v>469</v>
       </c>
       <c r="M26" s="7">
         <v>227</v>
@@ -7882,13 +7867,13 @@
         <v>167793</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>685</v>
+        <v>188</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7903,13 +7888,13 @@
         <v>3366860</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>5337</v>
@@ -7918,13 +7903,13 @@
         <v>3680473</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>8693</v>
@@ -7933,18 +7918,18 @@
         <v>7047334</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P5702-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P5702-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBAC4374-FE6A-4B6D-862D-FDF9D2030872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{407AB824-227D-455C-9694-D86279593337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C07878CC-1C0E-49D6-9FA4-DD668874C3F9}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{FD86AA55-9C8B-4FF6-AD5B-25F21221D041}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="687">
   <si>
     <t>Población según la frecuencia de recibir ayuda en asuntos relacionados con mi casa en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -1625,466 +1625,481 @@
     <t>Población según la frecuencia de recibir ayuda en asuntos relacionados con mi casa en 2023 (Tasa respuesta: 99,66%)</t>
   </si>
   <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>57,19%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
   </si>
   <si>
     <t>5,05%</t>
   </si>
   <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
   </si>
   <si>
     <t>5,1%</t>
   </si>
   <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
     <t>1,4%</t>
   </si>
   <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>56,38%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
   </si>
 </sst>
 </file>
@@ -2496,7 +2511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8033C6F1-D11C-4FE3-ADA0-4888677F4ED7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37312470-5E19-4375-BDCA-D6B6AD710D78}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2749,7 +2764,7 @@
         <v>454</v>
       </c>
       <c r="N6" s="7">
-        <v>456942</v>
+        <v>456941</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -2851,7 +2866,7 @@
         <v>51</v>
       </c>
       <c r="N8" s="7">
-        <v>55064</v>
+        <v>55063</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>57</v>
@@ -2902,7 +2917,7 @@
         <v>2329</v>
       </c>
       <c r="N9" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -2925,7 +2940,7 @@
         <v>865</v>
       </c>
       <c r="D10" s="7">
-        <v>897132</v>
+        <v>897133</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>62</v>
@@ -3027,7 +3042,7 @@
         <v>223</v>
       </c>
       <c r="D12" s="7">
-        <v>229146</v>
+        <v>229147</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>80</v>
@@ -3180,7 +3195,7 @@
         <v>1649</v>
       </c>
       <c r="D15" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -3556,7 +3571,7 @@
         <v>1468</v>
       </c>
       <c r="I22" s="7">
-        <v>1486729</v>
+        <v>1486728</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>155</v>
@@ -3571,7 +3586,7 @@
         <v>3046</v>
       </c>
       <c r="N22" s="7">
-        <v>3102296</v>
+        <v>3102297</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>158</v>
@@ -3592,7 +3607,7 @@
         <v>925</v>
       </c>
       <c r="D23" s="7">
-        <v>932394</v>
+        <v>932393</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>122</v>
@@ -3607,7 +3622,7 @@
         <v>860</v>
       </c>
       <c r="I23" s="7">
-        <v>876312</v>
+        <v>876311</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>22</v>
@@ -3796,7 +3811,7 @@
         <v>3214</v>
       </c>
       <c r="D27" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -3811,7 +3826,7 @@
         <v>3297</v>
       </c>
       <c r="I27" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -3826,7 +3841,7 @@
         <v>6511</v>
       </c>
       <c r="N27" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -3859,7 +3874,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4027EF6-FDEF-4BE5-AC40-596684AAFD4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E219CFB-F425-49C1-9D2B-1DC636CA73BC}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5222,7 +5237,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83F26C6-EC31-49C4-BA22-F967FAB34D3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{017A250F-3D8A-4990-9BBF-F41B54D80512}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6297,7 +6312,7 @@
         <v>2657</v>
       </c>
       <c r="N22" s="7">
-        <v>2790230</v>
+        <v>2790231</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>491</v>
@@ -6450,7 +6465,7 @@
         <v>410</v>
       </c>
       <c r="N25" s="7">
-        <v>443298</v>
+        <v>443299</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>265</v>
@@ -6552,7 +6567,7 @@
         <v>6530</v>
       </c>
       <c r="N27" s="7">
-        <v>6897554</v>
+        <v>6897555</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -6585,7 +6600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5903F0EE-AD00-4A40-8E1D-3537A67DDD65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A59650A-65E4-4D64-B543-A655DCFD931B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6706,7 +6721,7 @@
         <v>319</v>
       </c>
       <c r="D4" s="7">
-        <v>253913</v>
+        <v>243646</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>528</v>
@@ -6721,31 +6736,31 @@
         <v>592</v>
       </c>
       <c r="I4" s="7">
-        <v>352758</v>
+        <v>323571</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>531</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>532</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>533</v>
       </c>
       <c r="M4" s="7">
         <v>911</v>
       </c>
       <c r="N4" s="7">
-        <v>606671</v>
+        <v>567218</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>535</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6757,46 +6772,46 @@
         <v>184</v>
       </c>
       <c r="D5" s="7">
-        <v>144845</v>
+        <v>139428</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>538</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>539</v>
       </c>
       <c r="H5" s="7">
         <v>405</v>
       </c>
       <c r="I5" s="7">
-        <v>229717</v>
+        <v>207523</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>541</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>542</v>
       </c>
       <c r="M5" s="7">
         <v>589</v>
       </c>
       <c r="N5" s="7">
-        <v>374561</v>
+        <v>346950</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>544</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6808,46 +6823,46 @@
         <v>109</v>
       </c>
       <c r="D6" s="7">
-        <v>82746</v>
+        <v>76640</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>546</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>548</v>
       </c>
       <c r="H6" s="7">
         <v>243</v>
       </c>
       <c r="I6" s="7">
-        <v>139957</v>
+        <v>124117</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>549</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>551</v>
       </c>
       <c r="M6" s="7">
         <v>352</v>
       </c>
       <c r="N6" s="7">
-        <v>222704</v>
+        <v>200757</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>552</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6859,28 +6874,28 @@
         <v>50</v>
       </c>
       <c r="D7" s="7">
-        <v>37667</v>
+        <v>34460</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>555</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H7" s="7">
         <v>127</v>
       </c>
       <c r="I7" s="7">
-        <v>73156</v>
+        <v>65412</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>557</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>558</v>
@@ -6889,16 +6904,16 @@
         <v>177</v>
       </c>
       <c r="N7" s="7">
-        <v>110823</v>
+        <v>99872</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>560</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6910,46 +6925,46 @@
         <v>28</v>
       </c>
       <c r="D8" s="7">
-        <v>21609</v>
+        <v>19965</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>562</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>427</v>
       </c>
       <c r="H8" s="7">
         <v>53</v>
       </c>
       <c r="I8" s="7">
-        <v>36387</v>
+        <v>31359</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>564</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M8" s="7">
         <v>81</v>
       </c>
       <c r="N8" s="7">
-        <v>57995</v>
+        <v>51324</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>566</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>567</v>
+        <v>513</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6961,7 +6976,7 @@
         <v>690</v>
       </c>
       <c r="D9" s="7">
-        <v>540780</v>
+        <v>514139</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>60</v>
@@ -6976,7 +6991,7 @@
         <v>1420</v>
       </c>
       <c r="I9" s="7">
-        <v>831975</v>
+        <v>751982</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -6991,7 +7006,7 @@
         <v>2110</v>
       </c>
       <c r="N9" s="7">
-        <v>1372755</v>
+        <v>1266121</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -7014,46 +7029,46 @@
         <v>1091</v>
       </c>
       <c r="D10" s="7">
-        <v>1289114</v>
+        <v>1453837</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>568</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>569</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>570</v>
       </c>
       <c r="H10" s="7">
         <v>1458</v>
       </c>
       <c r="I10" s="7">
-        <v>1163585</v>
+        <v>1140868</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>571</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>572</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>573</v>
       </c>
       <c r="M10" s="7">
         <v>2549</v>
       </c>
       <c r="N10" s="7">
-        <v>2452700</v>
+        <v>2594706</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>574</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>575</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7065,28 +7080,28 @@
         <v>563</v>
       </c>
       <c r="D11" s="7">
-        <v>545899</v>
+        <v>529617</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>544</v>
+        <v>575</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>577</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>578</v>
       </c>
       <c r="H11" s="7">
         <v>919</v>
       </c>
       <c r="I11" s="7">
-        <v>595761</v>
+        <v>547396</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>579</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>580</v>
@@ -7095,16 +7110,16 @@
         <v>1482</v>
       </c>
       <c r="N11" s="7">
-        <v>1141659</v>
+        <v>1077013</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>581</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>245</v>
+        <v>582</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7116,46 +7131,46 @@
         <v>214</v>
       </c>
       <c r="D12" s="7">
-        <v>215937</v>
+        <v>203579</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H12" s="7">
         <v>304</v>
       </c>
       <c r="I12" s="7">
-        <v>218307</v>
+        <v>197921</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>391</v>
+        <v>587</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>586</v>
+        <v>224</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M12" s="7">
         <v>518</v>
       </c>
       <c r="N12" s="7">
-        <v>434244</v>
+        <v>401500</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>464</v>
+        <v>589</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7167,46 +7182,46 @@
         <v>79</v>
       </c>
       <c r="D13" s="7">
-        <v>69313</v>
+        <v>64326</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>304</v>
+        <v>594</v>
       </c>
       <c r="H13" s="7">
         <v>165</v>
       </c>
       <c r="I13" s="7">
-        <v>110917</v>
+        <v>100274</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>594</v>
+        <v>472</v>
       </c>
       <c r="M13" s="7">
         <v>244</v>
       </c>
       <c r="N13" s="7">
-        <v>180229</v>
+        <v>164599</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7218,46 +7233,46 @@
         <v>41</v>
       </c>
       <c r="D14" s="7">
-        <v>35775</v>
+        <v>32933</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>598</v>
+        <v>102</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>99</v>
+        <v>392</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H14" s="7">
         <v>69</v>
       </c>
       <c r="I14" s="7">
-        <v>46660</v>
+        <v>43195</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="M14" s="7">
         <v>110</v>
       </c>
       <c r="N14" s="7">
-        <v>82435</v>
+        <v>76128</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>602</v>
+        <v>98</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>57</v>
+        <v>605</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7269,7 +7284,7 @@
         <v>1988</v>
       </c>
       <c r="D15" s="7">
-        <v>2156038</v>
+        <v>2284292</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -7284,7 +7299,7 @@
         <v>2915</v>
       </c>
       <c r="I15" s="7">
-        <v>2135230</v>
+        <v>2029653</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -7299,7 +7314,7 @@
         <v>4903</v>
       </c>
       <c r="N15" s="7">
-        <v>4291268</v>
+        <v>4313946</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -7322,46 +7337,46 @@
         <v>410</v>
       </c>
       <c r="D16" s="7">
-        <v>422516</v>
+        <v>403012</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="H16" s="7">
         <v>576</v>
       </c>
       <c r="I16" s="7">
-        <v>431899</v>
+        <v>399439</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="M16" s="7">
         <v>986</v>
       </c>
       <c r="N16" s="7">
-        <v>854416</v>
+        <v>802452</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7373,46 +7388,46 @@
         <v>179</v>
       </c>
       <c r="D17" s="7">
-        <v>166061</v>
+        <v>163329</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="H17" s="7">
         <v>285</v>
       </c>
       <c r="I17" s="7">
-        <v>184785</v>
+        <v>171251</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="M17" s="7">
         <v>464</v>
       </c>
       <c r="N17" s="7">
-        <v>350847</v>
+        <v>334580</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7424,46 +7439,46 @@
         <v>52</v>
       </c>
       <c r="D18" s="7">
-        <v>45859</v>
+        <v>43543</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>432</v>
+        <v>625</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="H18" s="7">
         <v>66</v>
       </c>
       <c r="I18" s="7">
-        <v>47756</v>
+        <v>43738</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>299</v>
+        <v>629</v>
       </c>
       <c r="M18" s="7">
         <v>118</v>
       </c>
       <c r="N18" s="7">
-        <v>93615</v>
+        <v>87280</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>271</v>
+        <v>433</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>626</v>
+        <v>269</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7475,46 +7490,46 @@
         <v>25</v>
       </c>
       <c r="D19" s="7">
-        <v>23296</v>
+        <v>22239</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>629</v>
+        <v>440</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="H19" s="7">
         <v>51</v>
       </c>
       <c r="I19" s="7">
-        <v>33776</v>
+        <v>31484</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>233</v>
+        <v>634</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="M19" s="7">
         <v>76</v>
       </c>
       <c r="N19" s="7">
-        <v>57071</v>
+        <v>53723</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7526,46 +7541,46 @@
         <v>12</v>
       </c>
       <c r="D20" s="7">
-        <v>12310</v>
+        <v>11865</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>356</v>
+        <v>640</v>
       </c>
       <c r="H20" s="7">
         <v>24</v>
       </c>
       <c r="I20" s="7">
-        <v>15053</v>
+        <v>13922</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="M20" s="7">
         <v>36</v>
       </c>
       <c r="N20" s="7">
-        <v>27362</v>
+        <v>25787</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7577,7 +7592,7 @@
         <v>678</v>
       </c>
       <c r="D21" s="7">
-        <v>670042</v>
+        <v>643988</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -7592,7 +7607,7 @@
         <v>1002</v>
       </c>
       <c r="I21" s="7">
-        <v>713269</v>
+        <v>659834</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -7607,7 +7622,7 @@
         <v>1680</v>
       </c>
       <c r="N21" s="7">
-        <v>1383311</v>
+        <v>1303823</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -7630,46 +7645,46 @@
         <v>1820</v>
       </c>
       <c r="D22" s="7">
-        <v>1965543</v>
+        <v>2100496</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="H22" s="7">
         <v>2626</v>
       </c>
       <c r="I22" s="7">
-        <v>1948242</v>
+        <v>1863879</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="M22" s="7">
         <v>4446</v>
       </c>
       <c r="N22" s="7">
-        <v>3913786</v>
+        <v>3964375</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7681,46 +7696,46 @@
         <v>926</v>
       </c>
       <c r="D23" s="7">
-        <v>856805</v>
+        <v>832374</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>654</v>
+        <v>507</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="H23" s="7">
         <v>1609</v>
       </c>
       <c r="I23" s="7">
-        <v>1010262</v>
+        <v>926169</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="M23" s="7">
         <v>2535</v>
       </c>
       <c r="N23" s="7">
-        <v>1867067</v>
+        <v>1758543</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7732,46 +7747,46 @@
         <v>375</v>
       </c>
       <c r="D24" s="7">
-        <v>344543</v>
+        <v>323761</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="H24" s="7">
         <v>613</v>
       </c>
       <c r="I24" s="7">
-        <v>406021</v>
+        <v>365775</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>223</v>
+        <v>667</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="M24" s="7">
         <v>988</v>
       </c>
       <c r="N24" s="7">
-        <v>750563</v>
+        <v>689537</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7783,46 +7798,46 @@
         <v>154</v>
       </c>
       <c r="D25" s="7">
-        <v>130276</v>
+        <v>121025</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>590</v>
+        <v>674</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="H25" s="7">
         <v>343</v>
       </c>
       <c r="I25" s="7">
-        <v>217848</v>
+        <v>197170</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>138</v>
+        <v>676</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="M25" s="7">
         <v>497</v>
       </c>
       <c r="N25" s="7">
-        <v>348124</v>
+        <v>318194</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7834,46 +7849,46 @@
         <v>81</v>
       </c>
       <c r="D26" s="7">
-        <v>69694</v>
+        <v>64763</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>676</v>
+        <v>187</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>437</v>
+        <v>106</v>
       </c>
       <c r="H26" s="7">
         <v>146</v>
       </c>
       <c r="I26" s="7">
-        <v>98099</v>
+        <v>88476</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>679</v>
+        <v>641</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>469</v>
+        <v>683</v>
       </c>
       <c r="M26" s="7">
         <v>227</v>
       </c>
       <c r="N26" s="7">
-        <v>167793</v>
+        <v>153240</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>188</v>
+        <v>685</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7885,7 +7900,7 @@
         <v>3356</v>
       </c>
       <c r="D27" s="7">
-        <v>3366860</v>
+        <v>3442419</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -7900,7 +7915,7 @@
         <v>5337</v>
       </c>
       <c r="I27" s="7">
-        <v>3680473</v>
+        <v>3441470</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -7915,7 +7930,7 @@
         <v>8693</v>
       </c>
       <c r="N27" s="7">
-        <v>7047334</v>
+        <v>6883889</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
